--- a/data/stat probs/de'anthony melton stat probs - condition.xlsx
+++ b/data/stat probs/de'anthony melton stat probs - condition.xlsx
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="227 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="229 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 postseason" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="15" state="visible" r:id="rId15"/>
@@ -28,11 +28,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 postseason" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 postseason" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 postseason" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -596,28 +596,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -1750,28 +1750,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2104,28 +2104,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2522,28 +2522,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2940,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3456,28 +3456,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3778,28 +3778,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4100,28 +4100,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4742,28 +4742,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5384,28 +5384,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6540,28 +6540,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6894,28 +6894,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -8018,28 +8018,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -8596,28 +8596,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -9494,28 +9494,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -9976,28 +9976,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -10618,28 +10618,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -11260,28 +11260,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -12414,28 +12414,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -13056,28 +13056,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -13698,28 +13698,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -14784,6 +14784,1836 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>57</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>86</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>86</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>86</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>86</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>86</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>88</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>88</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>88</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>88</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14852,28 +16682,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15201,7 +17031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15270,28 +17100,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15611,1484 +17441,6 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>78</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67</v>
-      </c>
-      <c r="J3" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22</v>
-      </c>
-      <c r="E4" t="n">
-        <v>89</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44</v>
-      </c>
-      <c r="J4" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>78</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44</v>
-      </c>
-      <c r="J5" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>67</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n">
-        <v>78</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>78</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>56</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>56</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>56</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>56</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>78</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22</v>
-      </c>
-      <c r="D16" t="n">
-        <v>78</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>89</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>82</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" t="n">
-        <v>64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27</v>
-      </c>
-      <c r="E4" t="n">
-        <v>91</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27</v>
-      </c>
-      <c r="E5" t="n">
-        <v>73</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27</v>
-      </c>
-      <c r="H5" t="n">
-        <v>73</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36</v>
-      </c>
-      <c r="J5" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>64</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>64</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>27</v>
-      </c>
-      <c r="F7" t="n">
-        <v>73</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>64</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>55</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>45</v>
-      </c>
-      <c r="D10" t="n">
-        <v>55</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>45</v>
-      </c>
-      <c r="D11" t="n">
-        <v>55</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>45</v>
-      </c>
-      <c r="D12" t="n">
-        <v>55</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27</v>
-      </c>
-      <c r="D14" t="n">
-        <v>73</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18</v>
-      </c>
-      <c r="D15" t="n">
-        <v>82</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18</v>
-      </c>
-      <c r="D16" t="n">
-        <v>82</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -17166,28 +17518,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -17680,28 +18032,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18546,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18836,28 +19188,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -19990,28 +20342,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20632,28 +20984,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21146,28 +21498,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21660,28 +22012,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21982,28 +22334,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22304,28 +22656,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -23042,28 +23394,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -23780,28 +24132,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24422,28 +24774,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25064,28 +25416,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -25866,28 +26218,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -27020,28 +27372,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -27822,28 +28174,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28720,28 +29072,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29618,28 +29970,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30324,28 +30676,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31030,28 +31382,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31768,28 +32120,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32506,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -33148,28 +33500,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -33790,28 +34142,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -34592,28 +34944,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -35138,28 +35490,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35652,28 +36004,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -36454,28 +36806,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37064,28 +37416,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37674,28 +38026,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38380,28 +38732,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38766,28 +39118,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -39472,28 +39824,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39986,28 +40338,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40500,28 +40852,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41206,28 +41558,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -42360,28 +42712,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43066,28 +43418,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43580,28 +43932,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -44100,16 +44452,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44262,16 +44614,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44418,28 +44770,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45060,28 +45412,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45702,28 +46054,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46088,28 +46440,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46474,28 +46826,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -47276,28 +47628,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -48174,28 +48526,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48752,28 +49104,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -49554,28 +49906,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50132,28 +50484,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50710,28 +51062,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -51224,28 +51576,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -51738,28 +52090,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52252,28 +52604,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52766,28 +53118,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53920,28 +54272,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55074,28 +55426,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -55716,28 +56068,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -56262,28 +56614,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -56808,28 +57160,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57418,28 +57770,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58028,28 +58380,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58542,28 +58894,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -59056,28 +59408,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -60210,28 +60562,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61364,28 +61716,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61654,28 +62006,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61944,28 +62296,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -62842,28 +63194,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63484,28 +63836,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64126,28 +64478,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -64608,28 +64960,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -65090,28 +65442,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65540,28 +65892,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65990,28 +66342,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -66632,28 +66984,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -67274,28 +67626,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -67756,28 +68108,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
